--- a/po_analysis_by_asin/B0D51672JM_po_data.xlsx
+++ b/po_analysis_by_asin/B0D51672JM_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>24</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>98</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>80</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>92</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>66</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>138</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>74</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>14</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>46</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>144</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>272</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>32</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>126</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>284</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>24</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>98</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>244</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>272</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>416</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>158</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>284</v>

--- a/po_analysis_by_asin/B0D51672JM_po_data.xlsx
+++ b/po_analysis_by_asin/B0D51672JM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -597,7 +598,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -655,6 +656,369 @@
       </c>
       <c r="B8" t="n">
         <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-81.89336097206579</v>
+      </c>
+      <c r="D2" t="n">
+        <v>88.96594232629329</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-43.17020988328639</v>
+      </c>
+      <c r="D3" t="n">
+        <v>132.5802390848284</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>67</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-22.83650701875182</v>
+      </c>
+      <c r="D4" t="n">
+        <v>155.9521442048902</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>73</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-20.59118323890148</v>
+      </c>
+      <c r="D5" t="n">
+        <v>160.6256320373515</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.464614666903719</v>
+      </c>
+      <c r="D6" t="n">
+        <v>161.4744284234082</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.429294695645105</v>
+      </c>
+      <c r="D7" t="n">
+        <v>171.7515243587474</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>92</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.618927724034748</v>
+      </c>
+      <c r="D8" t="n">
+        <v>188.111160741854</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.714498564019989</v>
+      </c>
+      <c r="D9" t="n">
+        <v>193.3153193142762</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>105</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.20645534283799</v>
+      </c>
+      <c r="D10" t="n">
+        <v>194.1330399606991</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>111</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.4650794985619</v>
+      </c>
+      <c r="D11" t="n">
+        <v>205.174868884485</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>118</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35.3843890831109</v>
+      </c>
+      <c r="D12" t="n">
+        <v>200.9186914456119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>130</v>
+      </c>
+      <c r="C13" t="n">
+        <v>47.83154537196935</v>
+      </c>
+      <c r="D13" t="n">
+        <v>209.5100501228191</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>149</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67.86464281231494</v>
+      </c>
+      <c r="D14" t="n">
+        <v>239.144796045894</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>156</v>
+      </c>
+      <c r="C15" t="n">
+        <v>64.09822103624762</v>
+      </c>
+      <c r="D15" t="n">
+        <v>242.7372018636889</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>181</v>
+      </c>
+      <c r="C16" t="n">
+        <v>89.32165598061079</v>
+      </c>
+      <c r="D16" t="n">
+        <v>274.1989981374647</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>187</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100.6878040793588</v>
+      </c>
+      <c r="D17" t="n">
+        <v>278.2165606974953</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>194</v>
+      </c>
+      <c r="C18" t="n">
+        <v>107.7987694941669</v>
+      </c>
+      <c r="D18" t="n">
+        <v>276.673870315408</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>115.0985884241651</v>
+      </c>
+      <c r="D19" t="n">
+        <v>285.5471252563871</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>206</v>
+      </c>
+      <c r="C20" t="n">
+        <v>119.6283238312285</v>
+      </c>
+      <c r="D20" t="n">
+        <v>290.6009957265222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>213</v>
+      </c>
+      <c r="C21" t="n">
+        <v>128.3304611251373</v>
+      </c>
+      <c r="D21" t="n">
+        <v>307.0762141961546</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>219</v>
+      </c>
+      <c r="C22" t="n">
+        <v>133.346419756336</v>
+      </c>
+      <c r="D22" t="n">
+        <v>314.9244509065614</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>225</v>
+      </c>
+      <c r="C23" t="n">
+        <v>138.6291387284256</v>
+      </c>
+      <c r="D23" t="n">
+        <v>305.410859969212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>232</v>
+      </c>
+      <c r="C24" t="n">
+        <v>149.1637914575474</v>
+      </c>
+      <c r="D24" t="n">
+        <v>323.2108944742438</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D51672JM_po_data.xlsx
+++ b/po_analysis_by_asin/B0D51672JM_po_data.xlsx
@@ -669,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,16 +688,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -706,12 +696,6 @@
       <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>-81.89336097206579</v>
-      </c>
-      <c r="D2" t="n">
-        <v>88.96594232629329</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -720,12 +704,6 @@
       <c r="B3" t="n">
         <v>48</v>
       </c>
-      <c r="C3" t="n">
-        <v>-43.17020988328639</v>
-      </c>
-      <c r="D3" t="n">
-        <v>132.5802390848284</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -734,12 +712,6 @@
       <c r="B4" t="n">
         <v>67</v>
       </c>
-      <c r="C4" t="n">
-        <v>-22.83650701875182</v>
-      </c>
-      <c r="D4" t="n">
-        <v>155.9521442048902</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -748,12 +720,6 @@
       <c r="B5" t="n">
         <v>73</v>
       </c>
-      <c r="C5" t="n">
-        <v>-20.59118323890148</v>
-      </c>
-      <c r="D5" t="n">
-        <v>160.6256320373515</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -762,12 +728,6 @@
       <c r="B6" t="n">
         <v>79</v>
       </c>
-      <c r="C6" t="n">
-        <v>-8.464614666903719</v>
-      </c>
-      <c r="D6" t="n">
-        <v>161.4744284234082</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -776,12 +736,6 @@
       <c r="B7" t="n">
         <v>86</v>
       </c>
-      <c r="C7" t="n">
-        <v>-3.429294695645105</v>
-      </c>
-      <c r="D7" t="n">
-        <v>171.7515243587474</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -790,12 +744,6 @@
       <c r="B8" t="n">
         <v>92</v>
       </c>
-      <c r="C8" t="n">
-        <v>5.618927724034748</v>
-      </c>
-      <c r="D8" t="n">
-        <v>188.111160741854</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -804,12 +752,6 @@
       <c r="B9" t="n">
         <v>99</v>
       </c>
-      <c r="C9" t="n">
-        <v>8.714498564019989</v>
-      </c>
-      <c r="D9" t="n">
-        <v>193.3153193142762</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -818,12 +760,6 @@
       <c r="B10" t="n">
         <v>105</v>
       </c>
-      <c r="C10" t="n">
-        <v>14.20645534283799</v>
-      </c>
-      <c r="D10" t="n">
-        <v>194.1330399606991</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -832,12 +768,6 @@
       <c r="B11" t="n">
         <v>111</v>
       </c>
-      <c r="C11" t="n">
-        <v>29.4650794985619</v>
-      </c>
-      <c r="D11" t="n">
-        <v>205.174868884485</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -846,12 +776,6 @@
       <c r="B12" t="n">
         <v>118</v>
       </c>
-      <c r="C12" t="n">
-        <v>35.3843890831109</v>
-      </c>
-      <c r="D12" t="n">
-        <v>200.9186914456119</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -860,12 +784,6 @@
       <c r="B13" t="n">
         <v>130</v>
       </c>
-      <c r="C13" t="n">
-        <v>47.83154537196935</v>
-      </c>
-      <c r="D13" t="n">
-        <v>209.5100501228191</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -874,12 +792,6 @@
       <c r="B14" t="n">
         <v>149</v>
       </c>
-      <c r="C14" t="n">
-        <v>67.86464281231494</v>
-      </c>
-      <c r="D14" t="n">
-        <v>239.144796045894</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -888,12 +800,6 @@
       <c r="B15" t="n">
         <v>156</v>
       </c>
-      <c r="C15" t="n">
-        <v>64.09822103624762</v>
-      </c>
-      <c r="D15" t="n">
-        <v>242.7372018636889</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -902,12 +808,6 @@
       <c r="B16" t="n">
         <v>181</v>
       </c>
-      <c r="C16" t="n">
-        <v>89.32165598061079</v>
-      </c>
-      <c r="D16" t="n">
-        <v>274.1989981374647</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -916,12 +816,6 @@
       <c r="B17" t="n">
         <v>187</v>
       </c>
-      <c r="C17" t="n">
-        <v>100.6878040793588</v>
-      </c>
-      <c r="D17" t="n">
-        <v>278.2165606974953</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -930,12 +824,6 @@
       <c r="B18" t="n">
         <v>194</v>
       </c>
-      <c r="C18" t="n">
-        <v>107.7987694941669</v>
-      </c>
-      <c r="D18" t="n">
-        <v>276.673870315408</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -944,12 +832,6 @@
       <c r="B19" t="n">
         <v>200</v>
       </c>
-      <c r="C19" t="n">
-        <v>115.0985884241651</v>
-      </c>
-      <c r="D19" t="n">
-        <v>285.5471252563871</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -958,12 +840,6 @@
       <c r="B20" t="n">
         <v>206</v>
       </c>
-      <c r="C20" t="n">
-        <v>119.6283238312285</v>
-      </c>
-      <c r="D20" t="n">
-        <v>290.6009957265222</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -972,12 +848,6 @@
       <c r="B21" t="n">
         <v>213</v>
       </c>
-      <c r="C21" t="n">
-        <v>128.3304611251373</v>
-      </c>
-      <c r="D21" t="n">
-        <v>307.0762141961546</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -986,12 +856,6 @@
       <c r="B22" t="n">
         <v>219</v>
       </c>
-      <c r="C22" t="n">
-        <v>133.346419756336</v>
-      </c>
-      <c r="D22" t="n">
-        <v>314.9244509065614</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1000,12 +864,6 @@
       <c r="B23" t="n">
         <v>225</v>
       </c>
-      <c r="C23" t="n">
-        <v>138.6291387284256</v>
-      </c>
-      <c r="D23" t="n">
-        <v>305.410859969212</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1013,12 +871,6 @@
       </c>
       <c r="B24" t="n">
         <v>232</v>
-      </c>
-      <c r="C24" t="n">
-        <v>149.1637914575474</v>
-      </c>
-      <c r="D24" t="n">
-        <v>323.2108944742438</v>
       </c>
     </row>
   </sheetData>
